--- a/src/assets/img/sampleFile.xlsx
+++ b/src/assets/img/sampleFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Medha Office\Projects\Sim-FE-2025\src\assets\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Medha Office\Projects\SIDP-FE-2025\src\assets\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53640811-E739-415F-BAE3-440D827AFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7055D-6C04-458B-89F7-E0481E4592E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2929A569-DA4F-41D7-A512-8897FD3F9E10}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>fbvcbvc@gmail.com</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -74,16 +71,19 @@
     <t>Sustainable Development and Environment,Digital Transformation,Health and Well-being,Quality Education,Economic Empowerment,Smart and Resilient Communities,Agriculture and Rural Development,Others</t>
   </si>
   <si>
-    <t>Andaman and Nicobar Islands,Andhra Pradesh,Arunachal Pradesh,Assam,Bihar,Chandigarh,Chhattisgarh,Dadra and Nagar Haveli and Daman and Diu,Delhi,Goa,Gujarat,Haryana,Himachal Pradesh,Jammu and Kashmir,Jharkhand,Karnataka,Kerala,Ladakh,Lakshadweep,Madhya Pradesh,Maharashtra,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Puducherry,Punjab,Rajasthan,Sikkim,Tamil Nadu,Telangana,Tripura,Uttar Pradesh,Uttarakhand,West Bengal</t>
-  </si>
-  <si>
-    <t>Meghalaya,Mizoram,Nagaland,Sikkim,Tamil Nadu,Telangana,Tripura,Uttar Pradesh,Uttarakhand,West Bengal</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
     <t>Health and Well-being,Quality Education</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>ARIYALUR,CHENGALPATTU,CHENNAI,COIMBATORE,CUDDALORE,DHARMAPURI,DINDIGUL,ERODE,KALLAKURICHI,KANCHEEPURAM,KANNIYAKUMARI,KARUR,KRISHNAGIRI,MADURAI,MAYILADUTHURAI,NAGAPATTINAM,NAMAKKAL,PERAMBALUR,PUDUKKOTTAI,RAMANATHAPURAM,RANIPET,SALEM,SIVAGANGA,TENKASI,THANJAVUR,THE NILGIRIS,THENI,THIRUVALLUR,THIRUVARUR,THOOTHUKKUDI,TIRUCHIRAPPALLI,TIRUNELVELI,TIRUPATHUR,TIRUPPUR,TIRUVANNAMALAI,VELLORE,VILUPPURAM,VIRUDHUNAGAR</t>
+  </si>
+  <si>
+    <t>CHENGALPATTU</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -508,13 +508,13 @@
         <v>214325325</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,13 +528,13 @@
         <v>21325436</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
